--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R3129061d69e84a13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R66d387b26cc442b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R66d387b26cc442b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R114a92993d1644f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R114a92993d1644f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4ae912fe22ac4869"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4ae912fe22ac4869"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4bf21f6dae7941d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4bf21f6dae7941d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfc781f36ca664c9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfc781f36ca664c9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R33f80e62db6a47d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R33f80e62db6a47d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4cfb056232b1401c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4cfb056232b1401c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R87115f3f0a1a4b66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R87115f3f0a1a4b66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R40cf8d9026b04514"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/109_SimpleCalibrationWorkbook_Default.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R40cf8d9026b04514"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Ra496115bf4cf49c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
